--- a/sjclub数据字典.xlsx
+++ b/sjclub数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="215">
   <si>
     <t>字段名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -737,6 +737,142 @@
   </si>
   <si>
     <t>邮件消息提醒表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbo.T_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计工具部分，保存用户创建的统计表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uniqueidentifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键，用户Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbo.T_Users.Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计表的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计表创建的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计表附带的说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户用来显示表数据的备注信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbo.T_CountData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计工具部分，统计的数据部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CountExampleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键，统计表Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbo.T_Count.Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据表的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来存储统计表的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbo.T_CountExample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计工具部分，统计的示例部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键，统计表示例列Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbo.T_CountExample.Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColumnName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例列名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Example</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例列参考</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -832,16 +968,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1146,10 +1282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E150"/>
+  <dimension ref="A1:E177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:E110"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="E177" sqref="E177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1161,13 +1297,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
@@ -1177,22 +1313,22 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1296,22 +1432,22 @@
       <c r="E11" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1378,22 +1514,22 @@
       <c r="E18" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -1552,22 +1688,22 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -1711,22 +1847,22 @@
       <c r="E45" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -1795,22 +1931,22 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -1879,22 +2015,22 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -1952,7 +2088,7 @@
       <c r="B69" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="7" t="s">
         <v>173</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -1967,7 +2103,7 @@
       <c r="B70" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="7" t="s">
         <v>174</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -1976,22 +2112,22 @@
       <c r="E70" s="2"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -2041,22 +2177,22 @@
       <c r="E77" s="2"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -2125,22 +2261,22 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
@@ -2215,7 +2351,7 @@
       <c r="B94" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C94" s="7" t="s">
         <v>175</v>
       </c>
       <c r="D94" s="2" t="s">
@@ -2224,22 +2360,22 @@
       <c r="E94" s="2"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
@@ -2368,22 +2504,22 @@
       <c r="E106" s="2"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="9" t="s">
+      <c r="A110" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
@@ -2482,22 +2618,22 @@
       <c r="E116" s="2"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="7" t="s">
+      <c r="A119" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="9" t="s">
+      <c r="A120" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B120" s="9"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
@@ -2562,22 +2698,22 @@
       <c r="E124" s="2"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="7" t="s">
+      <c r="A127" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B127" s="7"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="9" t="s">
+      <c r="A128" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B128" s="9"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
@@ -2793,22 +2929,22 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="7" t="s">
+      <c r="A144" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B144" s="7"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
+      <c r="B144" s="9"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="9" t="s">
+      <c r="A145" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B145" s="9"/>
-      <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
@@ -2887,15 +3023,331 @@
       </c>
       <c r="E150" s="2"/>
     </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B153" s="9"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="8"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E156" s="2"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E158" s="2"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E159" s="2"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B163" s="9"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B164" s="8"/>
+      <c r="C164" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E166" s="2"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E168" s="2"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E169" s="2"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B172" s="9"/>
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="9"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B173" s="8"/>
+      <c r="C173" s="8"/>
+      <c r="D173" s="8"/>
+      <c r="E173" s="8"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E175" s="2"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A145:E145"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A119:E119"/>
-    <mergeCell ref="A120:E120"/>
-    <mergeCell ref="A127:E127"/>
-    <mergeCell ref="A128:E128"/>
-    <mergeCell ref="A144:E144"/>
+  <mergeCells count="37">
+    <mergeCell ref="A172:E172"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="A163:E163"/>
+    <mergeCell ref="A164:E164"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A153:E153"/>
+    <mergeCell ref="A154:E154"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A35:E35"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A57:E57"/>
@@ -2912,14 +3364,13 @@
     <mergeCell ref="A56:E56"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A145:E145"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="A120:E120"/>
+    <mergeCell ref="A127:E127"/>
+    <mergeCell ref="A128:E128"/>
+    <mergeCell ref="A144:E144"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
